--- a/Résultats controller PI.xlsx
+++ b/Résultats controller PI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>kp</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Nouveau timing pour interruption (premier timing x3/4 car le temps de calcul était court, donc on peut se permettre de faire des interrupts plus souvent, mais 1/2 c'était trop court)</t>
+  </si>
+  <si>
+    <t>Ripple tension pas terrible</t>
+  </si>
+  <si>
+    <t>Pas bon, énorme ripple tension</t>
+  </si>
+  <si>
+    <t>Pareil</t>
+  </si>
+  <si>
+    <t>Pas bon !!</t>
+  </si>
+  <si>
+    <t>Toujours un ripple de 0,5 V</t>
   </si>
 </sst>
 </file>
@@ -160,11 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -174,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +495,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,19 +505,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -622,13 +638,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -679,13 +695,13 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -736,25 +752,43 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.5</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -764,18 +798,30 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -785,11 +831,17 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>

--- a/Résultats controller PI.xlsx
+++ b/Résultats controller PI.xlsx
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,7 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,13 +638,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -695,13 +695,13 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>19</v>
       </c>
     </row>
